--- a/Proyectos/2015/12/P1397 - AECCON, XML+, Rufo Vazquez Casas _OC/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2015/12/P1397 - AECCON, XML+, Rufo Vazquez Casas _OC/Calidad/No_conformidades.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>REPORTE DE NO CONFORMIDADES P1398 - CCON3, Luis Antonio Ochoa Pérez_OC</t>
+    <t>REPORTE DE NO CONFORMIDADES P1397 - AECCON, XML+, Rufo Vazquez Casas _OC</t>
   </si>
   <si>
     <t>ID</t>
@@ -283,7 +283,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
